--- a/xlsx/country_comparison/main_share.xlsx
+++ b/xlsx/country_comparison/main_share.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Support for the GCS</t>
   </si>
   <si>
-    <t xml:space="preserve">Global tax on millionaires</t>
+    <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
   </si>
   <si>
     <t xml:space="preserve">A maximum wealth limit of $10 billion
@@ -52,7 +52,7 @@
     <t xml:space="preserve">[Country]'s foreign aid should be increased</t>
   </si>
   <si>
-    <t xml:space="preserve">Universalist</t>
+    <t xml:space="preserve">Universalist*</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.527972736493319</v>
+        <v>0.542040004729188</v>
       </c>
       <c r="C2" t="n">
         <v>0.757320866764204</v>
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.690508031455644</v>
+        <v>0.690508031294778</v>
       </c>
       <c r="C3" t="n">
         <v>0.839351652890108</v>
@@ -458,7 +458,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.46333575494323</v>
+        <v>0.463335748409596</v>
       </c>
       <c r="C4" t="n">
         <v>0.621065025534817</v>
@@ -481,7 +481,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.683819916214763</v>
+        <v>0.683819909691181</v>
       </c>
       <c r="C5" t="n">
         <v>0.819558096525353</v>
@@ -504,22 +504,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.76841285594711</v>
+        <v>0.598187005678366</v>
       </c>
       <c r="C6" t="n">
-        <v>0.821343908019915</v>
+        <v>0.636739028674537</v>
       </c>
       <c r="D6" t="n">
-        <v>0.891444587543869</v>
+        <v>0.627588384954585</v>
       </c>
       <c r="E6" t="n">
-        <v>0.862510868265041</v>
+        <v>0.676807601959896</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8686076878182</v>
+        <v>0.691059073949057</v>
       </c>
       <c r="G6" t="n">
-        <v>0.695129775127236</v>
+        <v>0.560844998477962</v>
       </c>
     </row>
     <row r="7">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.431295387287451</v>
+        <v>0.431295381080226</v>
       </c>
       <c r="C7" t="n">
         <v>0.415498652646033</v>
